--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -5,21 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="member_profile" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="dues" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="dues_rate" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="dues_multiplier" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="hoa" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="7" state="hidden" r:id="rId8"/>
-    <sheet name="collection_category" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="transaction" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="collection" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="collection_line" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="member_outside" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="hoa" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="collection_category" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="transaction" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="collection" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="collection_line" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="member_outside" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="expense" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t xml:space="preserve">Member</t>
   </si>
@@ -48,7 +47,7 @@
     <t xml:space="preserve">mname</t>
   </si>
   <si>
-    <t xml:space="preserve">hoa_status</t>
+    <t xml:space="preserve">type</t>
   </si>
   <si>
     <t xml:space="preserve">active</t>
@@ -69,7 +68,7 @@
     <t xml:space="preserve">Alcantara</t>
   </si>
   <si>
-    <t xml:space="preserve">OWNER</t>
+    <t xml:space="preserve">HOMEOWNER</t>
   </si>
   <si>
     <t xml:space="preserve">Lee</t>
@@ -81,7 +80,16 @@
     <t xml:space="preserve">So</t>
   </si>
   <si>
-    <t xml:space="preserve">TENANT</t>
+    <t xml:space="preserve">Chris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTSIDE</t>
   </si>
   <si>
     <t xml:space="preserve">member_profile</t>
@@ -165,105 +173,63 @@
     <t xml:space="preserve">OWNER/TENANT</t>
   </si>
   <si>
-    <t xml:space="preserve">dues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duesid</t>
+    <t xml:space="preserve">hoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Bird Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collection_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collection_categoryid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance/ Utilities</t>
+    <t xml:space="preserve">frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isfixamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membership Fee(New Member)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Sticker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEARLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Dues</t>
   </si>
   <si>
     <t xml:space="preserve">MONTHLY</t>
   </si>
   <si>
-    <t xml:space="preserve">Security Guards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing Dues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEARLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dues_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oldrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updatedby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dues_multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- applicable for square mtr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue Bird Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection_categoryid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isfixamount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membership Fee(New Member)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car Sticker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly Dues</t>
-  </si>
-  <si>
     <t xml:space="preserve">BC</t>
   </si>
   <si>
@@ -315,13 +281,25 @@
     <t xml:space="preserve">post</t>
   </si>
   <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">margin</t>
+  </si>
+  <si>
     <t xml:space="preserve">remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">HOMEOWNER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTSIDE</t>
+    <t xml:space="preserve">BBCOURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.00</t>
   </si>
   <si>
     <t xml:space="preserve">collection_line</t>
@@ -348,6 +326,9 @@
     <t xml:space="preserve">MAR</t>
   </si>
   <si>
+    <t xml:space="preserve">WUE-100</t>
+  </si>
+  <si>
     <t xml:space="preserve">001</t>
   </si>
   <si>
@@ -364,6 +345,9 @@
   </si>
   <si>
     <t xml:space="preserve">School Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expense</t>
   </si>
 </sst>
 </file>
@@ -381,7 +365,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -403,14 +386,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,7 +436,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,6 +461,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,10 +486,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -513,7 +498,8 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -596,6 +582,32 @@
         <v>42736</v>
       </c>
       <c r="H5" s="2" t="n">
+        <v>42885</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>42885</v>
       </c>
     </row>
@@ -615,125 +627,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>42856</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>42856</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>500</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -743,208 +659,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -972,27 +703,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>6</v>
@@ -1006,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
@@ -1029,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1</v>
@@ -1052,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
@@ -1075,16 +806,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
@@ -1098,13 +829,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>6394723232</v>
@@ -1121,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1</v>
@@ -1144,16 +875,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
@@ -1178,292 +909,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>43100</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>42856</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>73050</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>42856</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>73050</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>42856</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>73050</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1479,15 +924,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -1495,7 +940,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -1512,7 +957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1538,15 +983,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1564,27 +1009,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>6</v>
@@ -1601,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
@@ -1627,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>1</v>
@@ -1653,13 +1098,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>1</v>
@@ -1682,13 +1127,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
@@ -1711,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>1</v>
@@ -1730,6 +1175,510 @@
       </c>
       <c r="I8" s="2" t="n">
         <v>73050</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1748,42 +1697,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
+      <c r="A1" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,16 +1733,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>42886</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1000</v>
+        <v>103</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,50 +1747,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>42886</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>42886</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>42886</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/docs/design.xlsx
+++ b/docs/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
     <sheet name="collection_line" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="member_outside" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="expense" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="expense_line" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t xml:space="preserve">Member</t>
   </si>
@@ -348,17 +348,48 @@
   </si>
   <si>
     <t xml:space="preserve">expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expenseid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTILITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expense_line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expense_lineid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -436,7 +467,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,6 +497,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,10 +662,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -641,6 +676,139 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -659,17 +827,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1195,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1324,7 +1577,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1561,7 +1814,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1699,7 +1952,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
